--- a/Data/g16.3.xlsx
+++ b/Data/g16.3.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -882,7 +882,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -892,17 +892,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D27">
-        <v>73</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -912,17 +912,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D28">
-        <v>3.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -932,17 +932,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -952,17 +952,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D30">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -972,11 +972,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D31">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="32">
@@ -992,11 +992,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D32">
-        <v>73.09999999999999</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
@@ -1012,11 +1012,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D33">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="34">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D34">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D35">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D36">
@@ -1092,11 +1092,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D37">
-        <v>71.5</v>
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -1112,11 +1112,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D38">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="39">
@@ -1132,11 +1132,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D39">
-        <v>15.7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D41">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D42">
-        <v>72.40000000000001</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="43">
@@ -1212,11 +1212,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D43">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="44">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D44">
@@ -1252,11 +1252,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D45">
-        <v>8.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D46">
@@ -1292,11 +1292,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D47">
-        <v>71</v>
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="48">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D48">
@@ -1332,11 +1332,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D49">
-        <v>17.2</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="50">
@@ -1352,11 +1352,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D50">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="51">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D51">
@@ -1382,7 +1382,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1392,17 +1392,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D52">
-        <v>72.8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1412,17 +1412,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D53">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1432,17 +1432,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D54">
-        <v>17.5</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1452,17 +1452,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D55">
-        <v>6</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1472,17 +1472,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D56">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1492,17 +1492,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D57">
-        <v>71.3</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1512,17 +1512,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D58">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1532,17 +1532,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D59">
-        <v>18.6</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1552,17 +1552,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D60">
-        <v>7.1</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D61">
@@ -1592,11 +1592,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D62">
-        <v>68.59999999999999</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="63">
@@ -1612,11 +1612,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D63">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="64">
@@ -1632,11 +1632,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D64">
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="65">
@@ -1652,11 +1652,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D65">
-        <v>8.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -1672,11 +1672,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D66">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="67">
@@ -1692,11 +1692,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D67">
-        <v>64.09999999999999</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="68">
@@ -1712,11 +1712,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D68">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="69">
@@ -1732,11 +1732,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D69">
-        <v>20.1</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="70">
@@ -1752,11 +1752,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D70">
-        <v>11.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="71">
@@ -1772,11 +1772,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D71">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="72">
@@ -1792,11 +1792,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D72">
-        <v>61.8</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="73">
@@ -1812,11 +1812,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D73">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="74">
@@ -1832,11 +1832,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D74">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
@@ -1852,11 +1852,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D75">
-        <v>10.9</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="76">
@@ -1872,11 +1872,311 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D76">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Próprio de algum morador - já pago</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D77">
+        <v>64.09999999999999</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Próprio de algum morador - ainda pagando</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D78">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Alugado</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D79">
+        <v>20.1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Cedido</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D80">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Outra condição</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D81">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Próprio de algum morador - já pago</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>31/12/2022</t>
         </is>
       </c>
-      <c r="D76">
+      <c r="D82">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Próprio de algum morador - ainda pagando</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D83">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Alugado</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D84">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Cedido</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D85">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Outra condição</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D86">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Próprio de algum morador - já pago</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="D87">
+        <v>64.40000000000001</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Próprio de algum morador - ainda pagando</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="D88">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Alugado</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="D89">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Cedido</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="D90">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Outra condição</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="D91">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g16.3.xlsx
+++ b/Data/g16.3.xlsx
@@ -1,46 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,21 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -350,14 +420,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Região</t>
@@ -392,10 +468,10 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D2">
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>66.7</v>
       </c>
     </row>
@@ -412,10 +488,10 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D3">
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>6.2</v>
       </c>
     </row>
@@ -432,10 +508,10 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D4">
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>18.5</v>
       </c>
     </row>
@@ -452,10 +528,10 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D5">
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>8.5</v>
       </c>
     </row>
@@ -472,10 +548,10 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D6">
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -492,10 +568,10 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D7">
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>66.5</v>
       </c>
     </row>
@@ -512,10 +588,10 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D8">
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>5.8</v>
       </c>
     </row>
@@ -532,10 +608,10 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D9">
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>18.5</v>
       </c>
     </row>
@@ -552,10 +628,10 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D10">
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -572,10 +648,10 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D11">
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -592,10 +668,10 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D12">
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>65</v>
       </c>
     </row>
@@ -612,10 +688,10 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D13">
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>6.2</v>
       </c>
     </row>
@@ -632,10 +708,10 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D14">
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>19.2</v>
       </c>
     </row>
@@ -652,10 +728,10 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D15">
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>9.4</v>
       </c>
     </row>
@@ -672,10 +748,10 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D16">
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -692,10 +768,10 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D17">
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>64.8</v>
       </c>
     </row>
@@ -712,10 +788,10 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D18">
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>6.4</v>
       </c>
     </row>
@@ -732,10 +808,10 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D19">
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>19.3</v>
       </c>
     </row>
@@ -752,10 +828,10 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D20">
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>9.199999999999999</v>
       </c>
     </row>
@@ -772,10 +848,10 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D21">
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -792,10 +868,10 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D22">
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>63.8</v>
       </c>
     </row>
@@ -812,10 +888,10 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D23">
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
         <v>6</v>
       </c>
     </row>
@@ -832,10 +908,10 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D24">
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
         <v>21.1</v>
       </c>
     </row>
@@ -852,10 +928,10 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D25">
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
         <v>8.800000000000001</v>
       </c>
     </row>
@@ -872,10 +948,10 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D26">
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -892,10 +968,10 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D27">
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
         <v>62.3</v>
       </c>
     </row>
@@ -912,10 +988,10 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D28">
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
         <v>6</v>
       </c>
     </row>
@@ -932,10 +1008,10 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D29">
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
         <v>22.4</v>
       </c>
     </row>
@@ -952,10 +1028,10 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D30">
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
         <v>9</v>
       </c>
     </row>
@@ -972,10 +1048,10 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D31">
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -992,10 +1068,10 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D32">
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
         <v>73</v>
       </c>
     </row>
@@ -1012,10 +1088,10 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D33">
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -1032,10 +1108,10 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D34">
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1052,10 +1128,10 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D35">
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
@@ -1072,10 +1148,10 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D36">
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1092,10 +1168,10 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D37">
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
         <v>73.09999999999999</v>
       </c>
     </row>
@@ -1112,10 +1188,10 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D38">
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -1132,10 +1208,10 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D39">
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1152,10 +1228,10 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D40">
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
@@ -1172,10 +1248,10 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D41">
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1192,10 +1268,10 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D42">
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
         <v>71.5</v>
       </c>
     </row>
@@ -1212,10 +1288,10 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D43">
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
         <v>3.7</v>
       </c>
     </row>
@@ -1232,10 +1308,10 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D44">
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
         <v>15.7</v>
       </c>
     </row>
@@ -1252,10 +1328,10 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D45">
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1272,10 +1348,10 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D46">
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1292,10 +1368,10 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D47">
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
         <v>72.40000000000001</v>
       </c>
     </row>
@@ -1312,10 +1388,10 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D48">
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
         <v>3.2</v>
       </c>
     </row>
@@ -1332,10 +1408,10 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D49">
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
         <v>15.7</v>
       </c>
     </row>
@@ -1352,10 +1428,10 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D50">
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
         <v>8.6</v>
       </c>
     </row>
@@ -1372,10 +1448,10 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D51">
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1392,10 +1468,10 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D52">
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
         <v>71</v>
       </c>
     </row>
@@ -1412,10 +1488,10 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D53">
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
         <v>3.2</v>
       </c>
     </row>
@@ -1432,10 +1508,10 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D54">
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
         <v>17.2</v>
       </c>
     </row>
@@ -1452,10 +1528,10 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D55">
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
         <v>8.4</v>
       </c>
     </row>
@@ -1472,10 +1548,10 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D56">
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1492,10 +1568,10 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D57">
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
         <v>70.40000000000001</v>
       </c>
     </row>
@@ -1512,10 +1588,10 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D58">
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
         <v>2.9</v>
       </c>
     </row>
@@ -1532,10 +1608,10 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D59">
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
         <v>17.9</v>
       </c>
     </row>
@@ -1552,10 +1628,10 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D60">
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
         <v>8.6</v>
       </c>
     </row>
@@ -1572,10 +1648,10 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D61">
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1592,10 +1668,10 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D62">
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
         <v>72.8</v>
       </c>
     </row>
@@ -1612,10 +1688,10 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D63">
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -1632,10 +1708,10 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D64">
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
         <v>17.5</v>
       </c>
     </row>
@@ -1652,10 +1728,10 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D65">
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1672,10 +1748,10 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D66">
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1692,10 +1768,10 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D67">
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
         <v>71.3</v>
       </c>
     </row>
@@ -1712,10 +1788,10 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D68">
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
         <v>2.8</v>
       </c>
     </row>
@@ -1732,10 +1808,10 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D69">
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
         <v>18.6</v>
       </c>
     </row>
@@ -1752,10 +1828,10 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D70">
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
         <v>7.1</v>
       </c>
     </row>
@@ -1772,10 +1848,10 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D71">
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1792,10 +1868,10 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D72">
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
         <v>68.59999999999999</v>
       </c>
     </row>
@@ -1812,10 +1888,10 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D73">
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -1832,10 +1908,10 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D74">
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1852,10 +1928,10 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D75">
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
         <v>8.9</v>
       </c>
     </row>
@@ -1872,10 +1948,10 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D76">
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -1892,10 +1968,10 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D77">
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
         <v>64.09999999999999</v>
       </c>
     </row>
@@ -1912,10 +1988,10 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D78">
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -1932,10 +2008,10 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D79">
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
         <v>20.1</v>
       </c>
     </row>
@@ -1952,10 +2028,10 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D80">
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
         <v>11.2</v>
       </c>
     </row>
@@ -1972,10 +2048,10 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D81">
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -1992,10 +2068,10 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D82">
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
         <v>61.8</v>
       </c>
     </row>
@@ -2012,10 +2088,10 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D83">
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -2032,10 +2108,10 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D84">
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
         <v>22</v>
       </c>
     </row>
@@ -2052,10 +2128,10 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D85">
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
         <v>10.9</v>
       </c>
     </row>
@@ -2072,10 +2148,10 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D86">
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2092,10 +2168,10 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D87">
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
         <v>64.40000000000001</v>
       </c>
     </row>
@@ -2112,10 +2188,10 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D88">
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
         <v>4.1</v>
       </c>
     </row>
@@ -2132,10 +2208,10 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D89">
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
         <v>21.1</v>
       </c>
     </row>
@@ -2152,10 +2228,10 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D90">
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
         <v>9.699999999999999</v>
       </c>
     </row>
@@ -2172,14 +2248,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D91">
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
         <v>0.6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/g16.3.xlsx
+++ b/Data/g16.3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
     </row>
     <row r="3">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="5">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>66.5</v>
+        <v>66.59999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="10">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>65</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="13">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>64.8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="20">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>63.8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>62.3</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="28">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="30">
@@ -1058,7 +1058,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>73</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1108,17 +1108,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1128,17 +1128,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>8.199999999999999</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="39">
@@ -1208,11 +1208,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="40">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1268,11 +1268,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>71.5</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="43">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="44">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>15.7</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="45">
@@ -1328,11 +1328,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="46">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1368,11 +1368,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>72.40000000000001</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="48">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="49">
@@ -1408,11 +1408,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="50">
@@ -1428,11 +1428,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="51">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1468,11 +1468,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>71</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1508,11 +1508,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>17.2</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="55">
@@ -1528,11 +1528,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="56">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1568,11 +1568,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>70.40000000000001</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="58">
@@ -1588,11 +1588,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="59">
@@ -1608,11 +1608,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>17.9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
@@ -1628,11 +1628,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="61">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -1658,7 +1658,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1668,17 +1668,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>72.8</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1688,17 +1688,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1708,17 +1708,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1728,17 +1728,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>6</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1748,17 +1748,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1768,17 +1768,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>71.3</v>
+        <v>69.59999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1788,17 +1788,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1808,17 +1808,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1828,17 +1828,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>7.1</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>68.59999999999999</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73">
@@ -1888,11 +1888,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="74">
@@ -1908,11 +1908,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>17</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="75">
@@ -1928,11 +1928,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -1948,11 +1948,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="77">
@@ -1968,11 +1968,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>64.09999999999999</v>
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="78">
@@ -1988,11 +1988,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="79">
@@ -2008,11 +2008,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>20.1</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="80">
@@ -2028,11 +2028,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>11.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="81">
@@ -2048,11 +2048,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="82">
@@ -2068,11 +2068,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>61.8</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="83">
@@ -2088,11 +2088,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="84">
@@ -2108,11 +2108,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>22</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="85">
@@ -2128,11 +2128,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>10.9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="86">
@@ -2148,11 +2148,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="87">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2188,11 +2188,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="89">
@@ -2208,11 +2208,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>21.1</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="90">
@@ -2228,11 +2228,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>9.699999999999999</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="91">
@@ -2248,12 +2248,310 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D91" t="n">
         <v>0.6</v>
       </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Próprio de algum morador - já pago</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Próprio de algum morador - ainda pagando</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Alugado</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Cedido</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Outra condição</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Próprio de algum morador - já pago</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Próprio de algum morador - ainda pagando</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Alugado</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Cedido</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Outra condição</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Próprio de algum morador - já pago</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Próprio de algum morador - ainda pagando</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Alugado</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Cedido</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Outra condição</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
